--- a/biology/Botanique/Allotrianpuisto/Allotrianpuisto.xlsx
+++ b/biology/Botanique/Allotrianpuisto/Allotrianpuisto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc d'Allotria (en finnois : Allotrianpuisto) est un parc du quartier Hermanni à Helsinki en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc d'Allotria (en finnois : Allotrianpuisto) est un parc du quartier Hermanni à Helsinki en Finlande.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc d'Allotria est situé en bordure de la rue Hämeentie a proximité de la Prison d'Helsinki. 
 Le parc tire son nom du cinéma Allotria, qui était autrefois situé à Hämeentie 68, c'est-à-dire au croisement de Hämeentie et de Mäkelänkatu, où fonctionne actuellement le théâtre musical Kapsäkki. 
@@ -544,11 +558,13 @@
           <t>Statue du Mahatma Gandhi</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Offerte par le gouvernement indien, une statue du Mahatma Gandhi a été érigée dans le parc d'Allotria en septembre 2019. 
 La statue de bronze mesure 185 centimètres de haut et repose sur un socle en granite brun.
-Lors de sa visite en Finlande du 20 septembre 2019, le ministre indien des Affaires étrangères Subrahmanyam Jaishankar a inauguré la statue de Gandhi avec le ministre finlandais des Affaires étrangères Pekka Haavisto et l'adjointe au maire d'Helsinki Pia Pakarinen[2].
+Lors de sa visite en Finlande du 20 septembre 2019, le ministre indien des Affaires étrangères Subrahmanyam Jaishankar a inauguré la statue de Gandhi avec le ministre finlandais des Affaires étrangères Pekka Haavisto et l'adjointe au maire d'Helsinki Pia Pakarinen.
 </t>
         </is>
       </c>
